--- a/test/spreadsheets/excel_mac_2008-formula.xlsx
+++ b/test/spreadsheets/excel_mac_2008-formula.xlsx
@@ -22,14 +22,18 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>bob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -59,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,7 +398,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -411,12 +416,12 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
